--- a/2nd_session/làm bài/KhaosatchucnangWebsitequanlyvsbanoto.xlsx
+++ b/2nd_session/làm bài/KhaosatchucnangWebsitequanlyvsbanoto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.IT2024-2025\5. PHAN TICH THIET KE HE THONG THONG TIN\1.DA\Car_Showroom_Management\2nd_session\làm bài\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378F0E62-6F26-4F40-AB79-B7CFBF227CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2899B0A-C4E9-4AA4-A4D9-BC6EB16DB8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41715" yWindow="0" windowWidth="14955" windowHeight="16050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C5" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1087,7 +1087,7 @@
     <col min="5" max="5" width="26.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="27.875" style="5" customWidth="1"/>
     <col min="7" max="7" width="30" style="4" customWidth="1"/>
-    <col min="8" max="9" width="15.125" style="6" customWidth="1"/>
+    <col min="8" max="9" width="15.125" style="6" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="26.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/2nd_session/làm bài/KhaosatchucnangWebsitequanlyvsbanoto.xlsx
+++ b/2nd_session/làm bài/KhaosatchucnangWebsitequanlyvsbanoto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0.IT2024-2025\5. PHAN TICH THIET KE HE THONG THONG TIN\1.DA\Car_Showroom_Management\2nd_session\làm bài\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2899B0A-C4E9-4AA4-A4D9-BC6EB16DB8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CE0EF0-3A62-49BB-AF15-0D5DAAB2A7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41715" yWindow="0" windowWidth="14955" windowHeight="16050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C5" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1087,7 +1087,7 @@
     <col min="5" max="5" width="26.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="27.875" style="5" customWidth="1"/>
     <col min="7" max="7" width="30" style="4" customWidth="1"/>
-    <col min="8" max="9" width="15.125" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="15.125" style="6" customWidth="1"/>
     <col min="10" max="10" width="26.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
